--- a/biology/Botanique/Johannes_de_Cuba/Johannes_de_Cuba.xlsx
+++ b/biology/Botanique/Johannes_de_Cuba/Johannes_de_Cuba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johann Wonnecke von Kaub, dit Johann[es] Dronnecke, Johannes de Cuba dans sa forme latinisée et francisée en Jehan Cuba ou Jean de Cuba[1], né vers 1430 à Kaub et mort vers 1503-1504 à Francfort-sur-le-Main, est un médecin et herboriste allemand, auteur en 1485 du premier livre imprimé d’histoire naturelle en langue vulgaire, intitulé Der Ghenocklicke Gharde der Suntheit, qui eut une influence importante sur les débuts de la pharmacopée moderne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johann Wonnecke von Kaub, dit Johann[es] Dronnecke, Johannes de Cuba dans sa forme latinisée et francisée en Jehan Cuba ou Jean de Cuba, né vers 1430 à Kaub et mort vers 1503-1504 à Francfort-sur-le-Main, est un médecin et herboriste allemand, auteur en 1485 du premier livre imprimé d’histoire naturelle en langue vulgaire, intitulé Der Ghenocklicke Gharde der Suntheit, qui eut une influence importante sur les débuts de la pharmacopée moderne.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie et œuvre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Peu de détails de la vie de Johann Wonnecke von Kaub nous sont à ce jour parvenus. Vers 1448, il exerce probablement la profession de médecin à Francfort-sur-le-Main puis s'installe à Augsbourg à la fin du XVe siècle.
 En 1484, il commet un premier traité sur la décoction des herbes médicinales intitulé Herbarius qui se distingue de l’Herbarius du Pseudo-Apulée, un écrit datant du IVe siècle imprimé la même année.
